--- a/documents/02_画面遷移図_E4チーム[村人].xlsx
+++ b/documents/02_画面遷移図_E4チーム[村人].xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\【6月プロジェクト】\【作成ドキュメント】\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D0CAF-902D-4443-9D29-1E0761DF31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D2954-4C13-4BC1-BF7A-668B34098CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図(メイン)" sheetId="1" r:id="rId1"/>
@@ -924,102 +924,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,77 +971,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1145,15 +983,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1166,9 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1184,9 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1215,6 +1038,180 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,6 +1229,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3302,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL17" activeCellId="1" sqref="O27:V27 AI17:AS25"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7:AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3313,104 +3313,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -3478,61 +3478,61 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="7"/>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="AA7" s="40" t="s">
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="AA7" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AM7" s="40" t="s">
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AM7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+      <c r="AP7" s="77"/>
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77"/>
       <c r="BB7" s="9"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="7"/>
       <c r="O8" s="19"/>
       <c r="P8" s="20"/>
@@ -3562,28 +3562,28 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="10"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="63" t="s">
+      <c r="P9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="23"/>
       <c r="AA9" s="22"/>
       <c r="AB9" s="24"/>
@@ -3607,31 +3607,31 @@
       <c r="A10" s="6"/>
       <c r="B10" s="22"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="23"/>
-      <c r="X10" s="43" t="s">
+      <c r="X10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="43"/>
+      <c r="Y10" s="78"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
@@ -3640,10 +3640,10 @@
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="23"/>
-      <c r="AJ10" s="43" t="s">
+      <c r="AJ10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="43"/>
+      <c r="AK10" s="78"/>
       <c r="AM10" s="22"/>
       <c r="AN10" s="24"/>
       <c r="AO10" s="24"/>
@@ -3664,44 +3664,44 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="23"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
       <c r="AA11" s="22"/>
-      <c r="AB11" s="55" t="s">
+      <c r="AB11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
       <c r="AH11" s="23"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
       <c r="AM11" s="22"/>
-      <c r="AN11" s="55" t="s">
+      <c r="AN11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="81"/>
       <c r="AT11" s="23"/>
       <c r="BB11" s="9"/>
     </row>
@@ -3709,35 +3709,35 @@
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="18"/>
       <c r="I12" s="13"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
       <c r="V12" s="13"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
       <c r="AH12" s="13"/>
       <c r="AM12" s="12"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
       <c r="AT12" s="13"/>
       <c r="BB12" s="9"/>
     </row>
@@ -3779,16 +3779,16 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
       <c r="O14" s="22"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
@@ -3855,16 +3855,16 @@
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="L16" s="45" t="s">
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="L16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
       <c r="O16" s="31"/>
       <c r="BB16" s="9"/>
     </row>
@@ -3874,12 +3874,12 @@
       <c r="C17" s="8"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="BB17" s="9"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.35">
@@ -3888,9 +3888,9 @@
       <c r="C18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
       <c r="BB18" s="9"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.15">
@@ -3941,14 +3941,14 @@
       <c r="I20" s="23"/>
       <c r="J20" s="25"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="64" t="s">
+      <c r="P20" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
       <c r="V20" s="23"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="24"/>
@@ -3980,17 +3980,17 @@
       <c r="I21" s="23"/>
       <c r="J21" s="10"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
       <c r="V21" s="23"/>
-      <c r="X21" s="43" t="s">
+      <c r="X21" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="43"/>
+      <c r="Y21" s="78"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
@@ -4012,82 +4012,82 @@
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="23"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
       <c r="V22" s="23"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
       <c r="AA22" s="22"/>
-      <c r="AB22" s="55" t="s">
+      <c r="AB22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
       <c r="AH22" s="23"/>
       <c r="AM22" s="22"/>
-      <c r="AN22" s="56" t="s">
+      <c r="AN22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
       <c r="AT22" s="23"/>
       <c r="BB22" s="9"/>
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="13"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
       <c r="V23" s="13"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
       <c r="AH23" s="13"/>
       <c r="AM23" s="12"/>
-      <c r="AN23" s="57"/>
-      <c r="AO23" s="57"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86"/>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="86"/>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
       <c r="AT23" s="13"/>
       <c r="BB23" s="9"/>
     </row>
@@ -4118,12 +4118,12 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="13"/>
-      <c r="AI24" s="61" t="s">
+      <c r="AI24" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="62"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="80"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="25"/>
@@ -4161,10 +4161,10 @@
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="62"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="80"/>
       <c r="AM25" s="22"/>
       <c r="AN25" s="24"/>
       <c r="AO25" s="24"/>
@@ -4214,46 +4214,46 @@
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="O27" s="40" t="s">
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="O27" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="AA27" s="40" t="s">
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="AA27" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AM27" s="40" t="s">
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AM27" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="77"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="77"/>
       <c r="BB27" s="11"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.15">
@@ -5836,6 +5836,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="J10:N11"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="AM7:AT7"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="P22:U23"/>
     <mergeCell ref="AM27:AT27"/>
     <mergeCell ref="AA27:AH27"/>
     <mergeCell ref="O27:V27"/>
@@ -5850,32 +5876,6 @@
     <mergeCell ref="AB22:AG23"/>
     <mergeCell ref="AN22:AS23"/>
     <mergeCell ref="AN11:AS12"/>
-    <mergeCell ref="J10:N11"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="AM7:AT7"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="L16:N17"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="P22:U23"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D25E1-241F-4D1D-A5B7-F5D618D10236}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5899,104 +5899,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -6021,10 +6021,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -6096,23 +6096,23 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="32"/>
-      <c r="AB7" s="66" t="s">
+      <c r="AB7" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
       <c r="AQ7" s="32"/>
       <c r="AR7" s="32"/>
       <c r="AS7" s="32"/>
@@ -6128,16 +6128,16 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="25"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -6186,26 +6186,26 @@
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
@@ -6244,28 +6244,28 @@
       <c r="A10" s="6"/>
       <c r="B10" s="22"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
       <c r="V10" s="24"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
@@ -6276,8 +6276,8 @@
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
@@ -6306,42 +6306,42 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="24"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="24"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
       <c r="AT11" s="24"/>
       <c r="AU11" s="18"/>
       <c r="AV11" s="18"/>
@@ -6356,10 +6356,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="18"/>
       <c r="I12" s="13"/>
       <c r="J12" s="18"/>
@@ -6368,36 +6368,36 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
       <c r="V12" s="25"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
       <c r="AH12" s="25"/>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="18"/>
       <c r="AM12" s="25"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
       <c r="AT12" s="25"/>
       <c r="AU12" s="18"/>
       <c r="AV12" s="18"/>
@@ -6422,20 +6422,20 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="81"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="49"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="18"/>
@@ -6445,20 +6445,20 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="81"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="49"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
@@ -6466,21 +6466,21 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="82"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
@@ -6503,7 +6503,7 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="82"/>
+      <c r="AK14" s="50"/>
       <c r="AL14" s="24"/>
       <c r="AM14" s="24"/>
       <c r="AN14" s="24"/>
@@ -6536,7 +6536,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="82"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -6559,7 +6559,7 @@
       <c r="AH15" s="25"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
-      <c r="AK15" s="82"/>
+      <c r="AK15" s="50"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
@@ -6585,15 +6585,15 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="69"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -6605,7 +6605,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="84"/>
+      <c r="AA16" s="52"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
@@ -6615,8 +6615,8 @@
       <c r="AH16" s="18"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="69"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="37"/>
       <c r="AM16" s="18"/>
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
@@ -6628,7 +6628,7 @@
       <c r="AU16" s="18"/>
       <c r="AV16" s="18"/>
       <c r="AW16" s="18"/>
-      <c r="AX16" s="84"/>
+      <c r="AX16" s="52"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
@@ -6641,14 +6641,14 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="83"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
@@ -6661,19 +6661,19 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="84"/>
+      <c r="AA17" s="52"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="67" t="s">
+      <c r="AD17" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="83"/>
+      <c r="AK17" s="51"/>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
       <c r="AN17" s="18"/>
@@ -6686,7 +6686,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="18"/>
       <c r="AW17" s="18"/>
-      <c r="AX17" s="84"/>
+      <c r="AX17" s="52"/>
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
@@ -6699,54 +6699,54 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="82"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="67" t="s">
+      <c r="R18" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="84"/>
+      <c r="AA18" s="52"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="68" t="s">
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="84"/>
+      <c r="AM18" s="108"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="108"/>
+      <c r="AP18" s="108"/>
+      <c r="AQ18" s="108"/>
+      <c r="AR18" s="108"/>
+      <c r="AS18" s="108"/>
+      <c r="AT18" s="108"/>
+      <c r="AU18" s="108"/>
+      <c r="AV18" s="108"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="52"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
@@ -6766,16 +6766,16 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="82"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -6789,19 +6789,19 @@
       <c r="AH19" s="24"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="108"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="108"/>
+      <c r="AP19" s="108"/>
+      <c r="AQ19" s="108"/>
+      <c r="AR19" s="108"/>
+      <c r="AS19" s="108"/>
+      <c r="AT19" s="108"/>
+      <c r="AU19" s="108"/>
+      <c r="AV19" s="108"/>
+      <c r="AW19" s="108"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="18"/>
       <c r="AZ19" s="18"/>
@@ -6822,16 +6822,16 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="82"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="73"/>
+      <c r="P20" s="41"/>
       <c r="Q20" s="33"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
@@ -6845,19 +6845,19 @@
       <c r="AH20" s="24"/>
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="108"/>
+      <c r="AS20" s="108"/>
+      <c r="AT20" s="108"/>
+      <c r="AU20" s="108"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="18"/>
@@ -6878,7 +6878,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="82"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="24"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
@@ -6888,8 +6888,8 @@
       <c r="U21" s="33"/>
       <c r="V21" s="24"/>
       <c r="W21" s="18"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="24"/>
@@ -6901,7 +6901,7 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
-      <c r="AK21" s="82"/>
+      <c r="AK21" s="50"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
@@ -6911,8 +6911,8 @@
       <c r="AR21" s="33"/>
       <c r="AS21" s="24"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
       <c r="AW21" s="18"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="18"/>
@@ -6923,54 +6923,54 @@
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="24"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="82"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
       <c r="V22" s="24"/>
       <c r="W22" s="18"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="23"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
-      <c r="AK22" s="82"/>
+      <c r="AK22" s="50"/>
       <c r="AL22" s="24"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="92" t="s">
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="69"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="37"/>
       <c r="AW22" s="18"/>
       <c r="AX22" s="23"/>
       <c r="AY22" s="18"/>
@@ -6981,51 +6981,51 @@
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="82"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="25"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
       <c r="AH23" s="25"/>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
-      <c r="AK23" s="82"/>
+      <c r="AK23" s="50"/>
       <c r="AL23" s="25"/>
-      <c r="AM23" s="72"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="96"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="116"/>
       <c r="AV23" s="18"/>
       <c r="AW23" s="18"/>
       <c r="AX23" s="13"/>
@@ -7048,7 +7048,7 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="82"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
@@ -7069,9 +7069,9 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="25"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="82"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="50"/>
       <c r="AL24" s="25"/>
       <c r="AM24" s="25"/>
       <c r="AN24" s="25"/>
@@ -7104,7 +7104,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="82"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
@@ -7125,9 +7125,9 @@
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="82"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="50"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="24"/>
@@ -7204,58 +7204,58 @@
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="86" t="s">
+      <c r="O27" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="89" t="s">
+      <c r="AL27" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="AM27" s="88"/>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="88"/>
-      <c r="AP27" s="88"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="88"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="88"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
@@ -8842,6 +8842,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AL27:AW27"/>
+    <mergeCell ref="AN22:AU23"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="AB7:AP7"/>
+    <mergeCell ref="R18:W20"/>
+    <mergeCell ref="AD17:AH18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="AL18:AW20"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="M1:P1"/>
@@ -8850,22 +8866,6 @@
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="AB7:AP7"/>
-    <mergeCell ref="R18:W20"/>
-    <mergeCell ref="AD17:AH18"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="AL18:AW20"/>
-    <mergeCell ref="O27:Z27"/>
-    <mergeCell ref="AL27:AW27"/>
-    <mergeCell ref="AN22:AU23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8879,7 +8879,7 @@
   <dimension ref="A1:BH53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+      <selection activeCell="AL27" sqref="AL27:AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8889,104 +8889,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -9011,10 +9011,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -9058,16 +9058,16 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -9083,18 +9083,18 @@
       <c r="V7" s="32"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="67" t="s">
+      <c r="Y7" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
@@ -9118,16 +9118,16 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="25"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -9176,26 +9176,26 @@
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
@@ -9234,30 +9234,30 @@
       <c r="A10" s="6"/>
       <c r="B10" s="22"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="67" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
       <c r="V10" s="24"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
@@ -9268,8 +9268,8 @@
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
@@ -9298,42 +9298,42 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="24"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="24"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
       <c r="AT11" s="24"/>
       <c r="AU11" s="18"/>
       <c r="AV11" s="18"/>
@@ -9348,10 +9348,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="18"/>
       <c r="I12" s="13"/>
       <c r="J12" s="18"/>
@@ -9360,36 +9360,36 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
       <c r="V12" s="25"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
       <c r="AA12" s="25"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
       <c r="AH12" s="25"/>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="18"/>
       <c r="AM12" s="25"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
       <c r="AT12" s="25"/>
       <c r="AU12" s="18"/>
       <c r="AV12" s="18"/>
@@ -9414,28 +9414,28 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="104" t="s">
+      <c r="N13" s="123"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="106" t="s">
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="104" t="s">
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="106" t="s">
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="108"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="120"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="18"/>
@@ -9445,28 +9445,28 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="104" t="s">
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="106" t="s">
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="104" t="s">
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="106" t="s">
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="108"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="120"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
@@ -9474,34 +9474,34 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="109"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="122"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
@@ -9511,20 +9511,20 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="105"/>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="105"/>
-      <c r="AV14" s="107"/>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="109"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="118"/>
+      <c r="AU14" s="118"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
+      <c r="AX14" s="122"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
@@ -9544,7 +9544,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="82"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -9567,7 +9567,7 @@
       <c r="AH15" s="25"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
-      <c r="AK15" s="82"/>
+      <c r="AK15" s="50"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
@@ -9593,15 +9593,15 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="69"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -9613,7 +9613,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="84"/>
+      <c r="AA16" s="52"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
@@ -9623,8 +9623,8 @@
       <c r="AH16" s="18"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="69"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="37"/>
       <c r="AM16" s="18"/>
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
@@ -9636,7 +9636,7 @@
       <c r="AU16" s="18"/>
       <c r="AV16" s="18"/>
       <c r="AW16" s="18"/>
-      <c r="AX16" s="84"/>
+      <c r="AX16" s="52"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
@@ -9649,14 +9649,14 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="83"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
@@ -9669,17 +9669,17 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="84"/>
+      <c r="AA17" s="52"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
-      <c r="AK17" s="83"/>
+      <c r="AK17" s="51"/>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
       <c r="AN17" s="18"/>
@@ -9692,7 +9692,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="18"/>
       <c r="AW17" s="18"/>
-      <c r="AX17" s="84"/>
+      <c r="AX17" s="52"/>
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
@@ -9705,54 +9705,54 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="82"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="68" t="s">
+      <c r="P18" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="84"/>
+      <c r="AA18" s="52"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="68" t="s">
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="84"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="52"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
@@ -9772,18 +9772,18 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="82"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24"/>
@@ -9795,19 +9795,19 @@
       <c r="AH19" s="24"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="76"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="44"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="18"/>
       <c r="AZ19" s="18"/>
@@ -9828,18 +9828,18 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="82"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="23"/>
       <c r="AB20" s="24"/>
@@ -9851,19 +9851,19 @@
       <c r="AH20" s="24"/>
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="76"/>
+      <c r="AK20" s="50"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="44"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="18"/>
@@ -9884,7 +9884,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="82"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="24"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
@@ -9894,8 +9894,8 @@
       <c r="U21" s="33"/>
       <c r="V21" s="24"/>
       <c r="W21" s="18"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="24"/>
@@ -9907,7 +9907,7 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
-      <c r="AK21" s="82"/>
+      <c r="AK21" s="50"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
@@ -9917,8 +9917,8 @@
       <c r="AR21" s="33"/>
       <c r="AS21" s="24"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
       <c r="AW21" s="18"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="18"/>
@@ -9929,44 +9929,44 @@
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="24"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="82"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
       <c r="V22" s="24"/>
       <c r="W22" s="18"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="23"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
-      <c r="AK22" s="82"/>
+      <c r="AK22" s="50"/>
       <c r="AL22" s="24"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="97"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="55"/>
       <c r="AO22" s="32"/>
       <c r="AP22" s="32"/>
       <c r="AQ22" s="32"/>
@@ -9974,7 +9974,7 @@
       <c r="AS22" s="32"/>
       <c r="AT22" s="32"/>
       <c r="AU22" s="32"/>
-      <c r="AV22" s="69"/>
+      <c r="AV22" s="37"/>
       <c r="AW22" s="18"/>
       <c r="AX22" s="23"/>
       <c r="AY22" s="18"/>
@@ -9985,43 +9985,43 @@
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="82"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="25"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
       <c r="AH23" s="25"/>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
-      <c r="AK23" s="82"/>
+      <c r="AK23" s="50"/>
       <c r="AL23" s="25"/>
-      <c r="AM23" s="72"/>
+      <c r="AM23" s="40"/>
       <c r="AN23" s="32"/>
       <c r="AO23" s="32"/>
       <c r="AP23" s="32"/>
@@ -10052,7 +10052,7 @@
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="82"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
@@ -10073,9 +10073,9 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="25"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="82"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="50"/>
       <c r="AL24" s="25"/>
       <c r="AM24" s="25"/>
       <c r="AN24" s="25"/>
@@ -10108,7 +10108,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="82"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
@@ -10129,9 +10129,9 @@
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="82"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="50"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="24"/>
@@ -10208,58 +10208,58 @@
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="86" t="s">
+      <c r="O27" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="89" t="s">
+      <c r="AL27" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AM27" s="88"/>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="88"/>
-      <c r="AP27" s="88"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="88"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="88"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
@@ -11846,14 +11846,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AS13:AU14"/>
-    <mergeCell ref="AV13:AX14"/>
-    <mergeCell ref="S13:U14"/>
-    <mergeCell ref="V13:X14"/>
-    <mergeCell ref="Y13:AA14"/>
-    <mergeCell ref="AK13:AL14"/>
-    <mergeCell ref="AM13:AO14"/>
-    <mergeCell ref="AP13:AR14"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="O27:Z27"/>
     <mergeCell ref="AL27:AW27"/>
     <mergeCell ref="P18:Y20"/>
@@ -11865,20 +11871,14 @@
     <mergeCell ref="L10:S10"/>
     <mergeCell ref="N13:O14"/>
     <mergeCell ref="P13:R14"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AS13:AU14"/>
+    <mergeCell ref="AV13:AX14"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="V13:X14"/>
+    <mergeCell ref="Y13:AA14"/>
+    <mergeCell ref="AK13:AL14"/>
+    <mergeCell ref="AM13:AO14"/>
+    <mergeCell ref="AP13:AR14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11891,8 +11891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C309D63-8CC6-4025-B223-8A864ACC0A00}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17:AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -11902,104 +11902,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -12024,10 +12024,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -12068,22 +12068,22 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="117"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="60"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -12099,16 +12099,16 @@
       <c r="V7" s="32"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
@@ -12131,27 +12131,27 @@
       <c r="BB7" s="17"/>
       <c r="BC7" s="18"/>
       <c r="BD7" s="18"/>
-      <c r="BE7" s="84"/>
+      <c r="BE7" s="52"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="104" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="117"/>
+      <c r="G8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -12182,14 +12182,14 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
-      <c r="AO8" s="67" t="s">
+      <c r="AO8" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
@@ -12200,42 +12200,42 @@
       <c r="BB8" s="17"/>
       <c r="BC8" s="18"/>
       <c r="BD8" s="18"/>
-      <c r="BE8" s="84"/>
+      <c r="BE8" s="52"/>
     </row>
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="115"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="67" t="s">
+      <c r="Z9" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -12261,7 +12261,7 @@
       <c r="BB9" s="17"/>
       <c r="BC9" s="18"/>
       <c r="BD9" s="18"/>
-      <c r="BE9" s="84"/>
+      <c r="BE9" s="52"/>
     </row>
     <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -12273,24 +12273,24 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="67" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
       <c r="V10" s="24"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
@@ -12301,8 +12301,8 @@
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
@@ -12322,56 +12322,56 @@
       <c r="BB10" s="17"/>
       <c r="BC10" s="18"/>
       <c r="BD10" s="18"/>
-      <c r="BE10" s="84"/>
+      <c r="BE10" s="52"/>
     </row>
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="24"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="24"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
       <c r="AT11" s="24"/>
       <c r="AU11" s="18"/>
       <c r="AV11" s="18"/>
@@ -12380,93 +12380,93 @@
       <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="18"/>
-      <c r="BB11" s="116"/>
+      <c r="BB11" s="59"/>
       <c r="BC11" s="30"/>
       <c r="BD11" s="18"/>
-      <c r="BE11" s="84"/>
+      <c r="BE11" s="52"/>
     </row>
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="84"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="104" t="s">
+      <c r="L12" s="123"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="106" t="s">
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="104" t="s">
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="106" t="s">
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="108"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="120"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="104" t="s">
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="106" t="s">
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="104" t="s">
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="104"/>
-      <c r="AL12" s="106" t="s">
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="108"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="120"/>
       <c r="AO12" s="18"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="104" t="s">
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="106" t="s">
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="104" t="s">
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AY12" s="104"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="106" t="s">
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="108"/>
+      <c r="BB12" s="119"/>
+      <c r="BC12" s="120"/>
       <c r="BD12" s="18"/>
-      <c r="BE12" s="84"/>
+      <c r="BE12" s="52"/>
     </row>
     <row r="13" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -12478,54 +12478,54 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="84"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="109"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="122"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="109"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="122"/>
       <c r="AO13" s="18"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="105"/>
-      <c r="AY13" s="105"/>
-      <c r="AZ13" s="105"/>
-      <c r="BA13" s="107"/>
-      <c r="BB13" s="107"/>
-      <c r="BC13" s="109"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="121"/>
+      <c r="BB13" s="121"/>
+      <c r="BC13" s="122"/>
       <c r="BD13" s="18"/>
-      <c r="BE13" s="84"/>
+      <c r="BE13" s="52"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -12537,9 +12537,9 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="84"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="82"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -12554,7 +12554,7 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="82"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="25"/>
@@ -12569,7 +12569,7 @@
       <c r="AM14" s="18"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="18"/>
-      <c r="AP14" s="82"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="25"/>
       <c r="AS14" s="25"/>
@@ -12584,7 +12584,7 @@
       <c r="BB14" s="18"/>
       <c r="BC14" s="13"/>
       <c r="BD14" s="18"/>
-      <c r="BE14" s="84"/>
+      <c r="BE14" s="52"/>
     </row>
     <row r="15" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -12596,10 +12596,10 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="112"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
@@ -12611,10 +12611,10 @@
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
-      <c r="Y15" s="84"/>
+      <c r="Y15" s="52"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="69"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="37"/>
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
@@ -12626,10 +12626,10 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
-      <c r="AN15" s="84"/>
+      <c r="AN15" s="52"/>
       <c r="AO15" s="18"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="69"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="37"/>
       <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
       <c r="AT15" s="18"/>
@@ -12641,9 +12641,9 @@
       <c r="AZ15" s="18"/>
       <c r="BA15" s="18"/>
       <c r="BB15" s="18"/>
-      <c r="BC15" s="84"/>
+      <c r="BC15" s="52"/>
       <c r="BD15" s="18"/>
-      <c r="BE15" s="84"/>
+      <c r="BE15" s="52"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -12652,12 +12652,12 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="83"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -12670,9 +12670,9 @@
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="84"/>
+      <c r="Y16" s="52"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="83"/>
+      <c r="AA16" s="51"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
@@ -12685,9 +12685,9 @@
       <c r="AK16" s="18"/>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18"/>
-      <c r="AN16" s="84"/>
+      <c r="AN16" s="52"/>
       <c r="AO16" s="18"/>
-      <c r="AP16" s="83"/>
+      <c r="AP16" s="51"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="18"/>
       <c r="AS16" s="18"/>
@@ -12700,9 +12700,9 @@
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
       <c r="BB16" s="18"/>
-      <c r="BC16" s="84"/>
+      <c r="BC16" s="52"/>
       <c r="BD16" s="18"/>
-      <c r="BE16" s="84"/>
+      <c r="BE16" s="52"/>
     </row>
     <row r="17" spans="1:60" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
@@ -12711,31 +12711,31 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="82"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="120" t="s">
+      <c r="N17" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="120" t="s">
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="125" t="s">
         <v>26</v>
       </c>
       <c r="AD17" s="126"/>
@@ -12747,12 +12747,12 @@
       <c r="AJ17" s="126"/>
       <c r="AK17" s="126"/>
       <c r="AL17" s="126"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="123"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="120" t="s">
+      <c r="AM17" s="67"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="67"/>
+      <c r="AR17" s="125" t="s">
         <v>31</v>
       </c>
       <c r="AS17" s="126"/>
@@ -12764,10 +12764,10 @@
       <c r="AY17" s="126"/>
       <c r="AZ17" s="126"/>
       <c r="BA17" s="126"/>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="84"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="52"/>
       <c r="BD17" s="18"/>
-      <c r="BE17" s="84"/>
+      <c r="BE17" s="52"/>
     </row>
     <row r="18" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
@@ -12776,28 +12776,28 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="82"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="67"/>
       <c r="AC18" s="126"/>
       <c r="AD18" s="126"/>
       <c r="AE18" s="126"/>
@@ -12808,11 +12808,11 @@
       <c r="AJ18" s="126"/>
       <c r="AK18" s="126"/>
       <c r="AL18" s="126"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="127"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="125"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="126"/>
       <c r="AS18" s="126"/>
       <c r="AT18" s="126"/>
@@ -12823,10 +12823,10 @@
       <c r="AY18" s="126"/>
       <c r="AZ18" s="126"/>
       <c r="BA18" s="126"/>
-      <c r="BB18" s="76"/>
+      <c r="BB18" s="44"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="18"/>
-      <c r="BE18" s="84"/>
+      <c r="BE18" s="52"/>
     </row>
     <row r="19" spans="1:60" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
@@ -12840,23 +12840,23 @@
       <c r="I19" s="24"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="82"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="67"/>
       <c r="AC19" s="126"/>
       <c r="AD19" s="126"/>
       <c r="AE19" s="126"/>
@@ -12867,11 +12867,11 @@
       <c r="AJ19" s="126"/>
       <c r="AK19" s="126"/>
       <c r="AL19" s="126"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="125"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="67"/>
       <c r="AR19" s="126"/>
       <c r="AS19" s="126"/>
       <c r="AT19" s="126"/>
@@ -12882,10 +12882,10 @@
       <c r="AY19" s="126"/>
       <c r="AZ19" s="126"/>
       <c r="BA19" s="126"/>
-      <c r="BB19" s="76"/>
+      <c r="BB19" s="44"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="18"/>
-      <c r="BE19" s="84"/>
+      <c r="BE19" s="52"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
@@ -12899,7 +12899,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="82"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="24"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
@@ -12909,12 +12909,12 @@
       <c r="S20" s="33"/>
       <c r="T20" s="24"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="17"/>
-      <c r="AA20" s="82"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="24"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
@@ -12924,12 +12924,12 @@
       <c r="AH20" s="33"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="18"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="17"/>
-      <c r="AP20" s="82"/>
+      <c r="AP20" s="50"/>
       <c r="AQ20" s="24"/>
       <c r="AR20" s="33"/>
       <c r="AS20" s="33"/>
@@ -12939,12 +12939,12 @@
       <c r="AW20" s="33"/>
       <c r="AX20" s="24"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
       <c r="BB20" s="18"/>
       <c r="BC20" s="23"/>
       <c r="BD20" s="18"/>
-      <c r="BE20" s="84"/>
+      <c r="BE20" s="52"/>
     </row>
     <row r="21" spans="1:60" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -12958,25 +12958,25 @@
       <c r="I21" s="24"/>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="82"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="24"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="17"/>
-      <c r="AA21" s="82"/>
+      <c r="AA21" s="50"/>
       <c r="AB21" s="24"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="97"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="55"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
@@ -12984,14 +12984,14 @@
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
       <c r="AK21" s="32"/>
-      <c r="AL21" s="69"/>
+      <c r="AL21" s="37"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="17"/>
-      <c r="AP21" s="82"/>
+      <c r="AP21" s="50"/>
       <c r="AQ21" s="24"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="97"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="55"/>
       <c r="AT21" s="32"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="32"/>
@@ -12999,32 +12999,32 @@
       <c r="AX21" s="32"/>
       <c r="AY21" s="32"/>
       <c r="AZ21" s="32"/>
-      <c r="BA21" s="69"/>
+      <c r="BA21" s="37"/>
       <c r="BB21" s="18"/>
       <c r="BC21" s="23"/>
       <c r="BD21" s="18"/>
-      <c r="BE21" s="84"/>
+      <c r="BE21" s="52"/>
     </row>
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="24"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="82"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="25"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
@@ -13032,9 +13032,9 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="82"/>
+      <c r="AA22" s="50"/>
       <c r="AB22" s="25"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="40"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
@@ -13047,9 +13047,9 @@
       <c r="AM22" s="18"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="17"/>
-      <c r="AP22" s="82"/>
+      <c r="AP22" s="50"/>
       <c r="AQ22" s="25"/>
-      <c r="AR22" s="72"/>
+      <c r="AR22" s="40"/>
       <c r="AS22" s="32"/>
       <c r="AT22" s="32"/>
       <c r="AU22" s="32"/>
@@ -13062,21 +13062,21 @@
       <c r="BB22" s="18"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="18"/>
-      <c r="BE22" s="84"/>
+      <c r="BE22" s="52"/>
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="82"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -13091,7 +13091,7 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="82"/>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="25"/>
@@ -13106,7 +13106,7 @@
       <c r="AM23" s="18"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="17"/>
-      <c r="AP23" s="82"/>
+      <c r="AP23" s="50"/>
       <c r="AQ23" s="25"/>
       <c r="AR23" s="25"/>
       <c r="AS23" s="25"/>
@@ -13121,7 +13121,7 @@
       <c r="BB23" s="18"/>
       <c r="BC23" s="13"/>
       <c r="BD23" s="18"/>
-      <c r="BE23" s="84"/>
+      <c r="BE23" s="52"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -13135,7 +13135,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="82"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
@@ -13150,7 +13150,7 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="17"/>
-      <c r="AA24" s="82"/>
+      <c r="AA24" s="50"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24"/>
@@ -13165,7 +13165,7 @@
       <c r="AM24" s="18"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="17"/>
-      <c r="AP24" s="82"/>
+      <c r="AP24" s="50"/>
       <c r="AQ24" s="24"/>
       <c r="AR24" s="24"/>
       <c r="AS24" s="24"/>
@@ -13180,7 +13180,7 @@
       <c r="BB24" s="18"/>
       <c r="BC24" s="23"/>
       <c r="BD24" s="18"/>
-      <c r="BE24" s="84"/>
+      <c r="BE24" s="52"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
@@ -13239,7 +13239,7 @@
       <c r="BB25" s="30"/>
       <c r="BC25" s="16"/>
       <c r="BD25" s="18"/>
-      <c r="BE25" s="84"/>
+      <c r="BE25" s="52"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
@@ -13254,116 +13254,116 @@
       <c r="J26" s="27"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="93" t="s">
+      <c r="M26" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="93" t="s">
+      <c r="AB26" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="93"/>
-      <c r="AM26" s="93"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
-      <c r="AQ26" s="93" t="s">
+      <c r="AQ26" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="AR26" s="93"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93"/>
-      <c r="AV26" s="93"/>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="93"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="93"/>
-      <c r="BA26" s="93"/>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="70"/>
+      <c r="AR26" s="113"/>
+      <c r="AS26" s="113"/>
+      <c r="AT26" s="113"/>
+      <c r="AU26" s="113"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="113"/>
+      <c r="AY26" s="113"/>
+      <c r="AZ26" s="113"/>
+      <c r="BA26" s="113"/>
+      <c r="BB26" s="113"/>
+      <c r="BC26" s="38"/>
       <c r="BD26" s="18"/>
-      <c r="BE26" s="84"/>
+      <c r="BE26" s="52"/>
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
       <c r="BA27" s="30"/>
-      <c r="BB27" s="116"/>
+      <c r="BB27" s="59"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30"/>
-      <c r="BE27" s="112"/>
+      <c r="BE27" s="58"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
@@ -14329,26 +14329,24 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="BA12:BC13"/>
-    <mergeCell ref="AR17:BA19"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="AB26:AM26"/>
-    <mergeCell ref="AQ26:BB26"/>
-    <mergeCell ref="AO8:AT8"/>
-    <mergeCell ref="Z9:AE9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="C11:I12"/>
     <mergeCell ref="AL12:AN13"/>
     <mergeCell ref="N17:W19"/>
     <mergeCell ref="AC17:AL19"/>
     <mergeCell ref="AP12:AQ13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
     <mergeCell ref="T12:V13"/>
     <mergeCell ref="W12:Y13"/>
     <mergeCell ref="AA12:AB13"/>
@@ -14358,19 +14356,21 @@
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="N12:P13"/>
     <mergeCell ref="Q12:S13"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AO8:AT8"/>
+    <mergeCell ref="Z9:AE9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="BA12:BC13"/>
+    <mergeCell ref="AR17:BA19"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="AB26:AM26"/>
+    <mergeCell ref="AQ26:BB26"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14384,7 +14384,7 @@
   <dimension ref="A1:BH53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+      <selection activeCell="AR17" sqref="AR17:BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -14394,104 +14394,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -14516,10 +14516,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -14560,22 +14560,22 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="117"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="60"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -14591,16 +14591,16 @@
       <c r="V7" s="32"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
@@ -14623,27 +14623,27 @@
       <c r="BB7" s="17"/>
       <c r="BC7" s="18"/>
       <c r="BD7" s="18"/>
-      <c r="BE7" s="84"/>
+      <c r="BE7" s="52"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="104" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="117"/>
+      <c r="G8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -14674,14 +14674,14 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
-      <c r="AO8" s="67" t="s">
+      <c r="AO8" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
@@ -14692,42 +14692,42 @@
       <c r="BB8" s="17"/>
       <c r="BC8" s="18"/>
       <c r="BD8" s="18"/>
-      <c r="BE8" s="84"/>
+      <c r="BE8" s="52"/>
     </row>
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="115"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="67" t="s">
+      <c r="Z9" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -14753,7 +14753,7 @@
       <c r="BB9" s="17"/>
       <c r="BC9" s="18"/>
       <c r="BD9" s="18"/>
-      <c r="BE9" s="84"/>
+      <c r="BE9" s="52"/>
     </row>
     <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -14765,24 +14765,24 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="67" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
       <c r="V10" s="24"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
@@ -14793,8 +14793,8 @@
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
@@ -14814,56 +14814,56 @@
       <c r="BB10" s="17"/>
       <c r="BC10" s="18"/>
       <c r="BD10" s="18"/>
-      <c r="BE10" s="84"/>
+      <c r="BE10" s="52"/>
     </row>
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="24"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="24"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
       <c r="AT11" s="24"/>
       <c r="AU11" s="18"/>
       <c r="AV11" s="18"/>
@@ -14872,93 +14872,93 @@
       <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="18"/>
-      <c r="BB11" s="116"/>
+      <c r="BB11" s="59"/>
       <c r="BC11" s="30"/>
       <c r="BD11" s="18"/>
-      <c r="BE11" s="84"/>
+      <c r="BE11" s="52"/>
     </row>
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="84"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="104" t="s">
+      <c r="L12" s="123"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="106" t="s">
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="104" t="s">
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="106" t="s">
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="108"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="120"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="104" t="s">
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="106" t="s">
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="104" t="s">
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="104"/>
-      <c r="AL12" s="106" t="s">
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="108"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="120"/>
       <c r="AO12" s="18"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="104" t="s">
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="106" t="s">
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="104" t="s">
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AY12" s="104"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="106" t="s">
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="108"/>
+      <c r="BB12" s="119"/>
+      <c r="BC12" s="120"/>
       <c r="BD12" s="18"/>
-      <c r="BE12" s="84"/>
+      <c r="BE12" s="52"/>
     </row>
     <row r="13" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -14970,54 +14970,54 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="84"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="109"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="122"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="109"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="122"/>
       <c r="AO13" s="18"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="105"/>
-      <c r="AY13" s="105"/>
-      <c r="AZ13" s="105"/>
-      <c r="BA13" s="107"/>
-      <c r="BB13" s="107"/>
-      <c r="BC13" s="109"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="121"/>
+      <c r="BB13" s="121"/>
+      <c r="BC13" s="122"/>
       <c r="BD13" s="18"/>
-      <c r="BE13" s="84"/>
+      <c r="BE13" s="52"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -15029,9 +15029,9 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="84"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="82"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -15046,7 +15046,7 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="82"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="25"/>
@@ -15061,7 +15061,7 @@
       <c r="AM14" s="18"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="18"/>
-      <c r="AP14" s="82"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="25"/>
       <c r="AS14" s="25"/>
@@ -15076,7 +15076,7 @@
       <c r="BB14" s="18"/>
       <c r="BC14" s="13"/>
       <c r="BD14" s="18"/>
-      <c r="BE14" s="84"/>
+      <c r="BE14" s="52"/>
     </row>
     <row r="15" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -15088,10 +15088,10 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="112"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
@@ -15103,10 +15103,10 @@
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
-      <c r="Y15" s="84"/>
+      <c r="Y15" s="52"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="69"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="37"/>
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
@@ -15118,10 +15118,10 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
-      <c r="AN15" s="84"/>
+      <c r="AN15" s="52"/>
       <c r="AO15" s="18"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="69"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="37"/>
       <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
       <c r="AT15" s="18"/>
@@ -15133,9 +15133,9 @@
       <c r="AZ15" s="18"/>
       <c r="BA15" s="18"/>
       <c r="BB15" s="18"/>
-      <c r="BC15" s="84"/>
+      <c r="BC15" s="52"/>
       <c r="BD15" s="18"/>
-      <c r="BE15" s="84"/>
+      <c r="BE15" s="52"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -15144,12 +15144,12 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="83"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -15162,9 +15162,9 @@
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="84"/>
+      <c r="Y16" s="52"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="83"/>
+      <c r="AA16" s="51"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
@@ -15177,9 +15177,9 @@
       <c r="AK16" s="18"/>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18"/>
-      <c r="AN16" s="84"/>
+      <c r="AN16" s="52"/>
       <c r="AO16" s="18"/>
-      <c r="AP16" s="83"/>
+      <c r="AP16" s="51"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="18"/>
       <c r="AS16" s="18"/>
@@ -15192,9 +15192,9 @@
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
       <c r="BB16" s="18"/>
-      <c r="BC16" s="84"/>
+      <c r="BC16" s="52"/>
       <c r="BD16" s="18"/>
-      <c r="BE16" s="84"/>
+      <c r="BE16" s="52"/>
     </row>
     <row r="17" spans="1:60" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
@@ -15203,31 +15203,31 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="82"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="120" t="s">
+      <c r="N17" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="120" t="s">
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="125" t="s">
         <v>27</v>
       </c>
       <c r="AD17" s="126"/>
@@ -15239,12 +15239,12 @@
       <c r="AJ17" s="126"/>
       <c r="AK17" s="126"/>
       <c r="AL17" s="126"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="123"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="120" t="s">
+      <c r="AM17" s="67"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="67"/>
+      <c r="AR17" s="125" t="s">
         <v>31</v>
       </c>
       <c r="AS17" s="126"/>
@@ -15256,10 +15256,10 @@
       <c r="AY17" s="126"/>
       <c r="AZ17" s="126"/>
       <c r="BA17" s="126"/>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="84"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="52"/>
       <c r="BD17" s="18"/>
-      <c r="BE17" s="84"/>
+      <c r="BE17" s="52"/>
     </row>
     <row r="18" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
@@ -15268,28 +15268,28 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="82"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="67"/>
       <c r="AC18" s="126"/>
       <c r="AD18" s="126"/>
       <c r="AE18" s="126"/>
@@ -15300,11 +15300,11 @@
       <c r="AJ18" s="126"/>
       <c r="AK18" s="126"/>
       <c r="AL18" s="126"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="127"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="125"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="126"/>
       <c r="AS18" s="126"/>
       <c r="AT18" s="126"/>
@@ -15315,10 +15315,10 @@
       <c r="AY18" s="126"/>
       <c r="AZ18" s="126"/>
       <c r="BA18" s="126"/>
-      <c r="BB18" s="76"/>
+      <c r="BB18" s="44"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="18"/>
-      <c r="BE18" s="84"/>
+      <c r="BE18" s="52"/>
     </row>
     <row r="19" spans="1:60" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
@@ -15332,23 +15332,23 @@
       <c r="I19" s="24"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="82"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="67"/>
       <c r="AC19" s="126"/>
       <c r="AD19" s="126"/>
       <c r="AE19" s="126"/>
@@ -15359,11 +15359,11 @@
       <c r="AJ19" s="126"/>
       <c r="AK19" s="126"/>
       <c r="AL19" s="126"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="125"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="67"/>
       <c r="AR19" s="126"/>
       <c r="AS19" s="126"/>
       <c r="AT19" s="126"/>
@@ -15374,10 +15374,10 @@
       <c r="AY19" s="126"/>
       <c r="AZ19" s="126"/>
       <c r="BA19" s="126"/>
-      <c r="BB19" s="76"/>
+      <c r="BB19" s="44"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="18"/>
-      <c r="BE19" s="84"/>
+      <c r="BE19" s="52"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
@@ -15391,7 +15391,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="82"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="24"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
@@ -15401,12 +15401,12 @@
       <c r="S20" s="33"/>
       <c r="T20" s="24"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="17"/>
-      <c r="AA20" s="82"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="24"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
@@ -15416,12 +15416,12 @@
       <c r="AH20" s="33"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="18"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="17"/>
-      <c r="AP20" s="82"/>
+      <c r="AP20" s="50"/>
       <c r="AQ20" s="24"/>
       <c r="AR20" s="33"/>
       <c r="AS20" s="33"/>
@@ -15431,12 +15431,12 @@
       <c r="AW20" s="33"/>
       <c r="AX20" s="24"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
       <c r="BB20" s="18"/>
       <c r="BC20" s="23"/>
       <c r="BD20" s="18"/>
-      <c r="BE20" s="84"/>
+      <c r="BE20" s="52"/>
     </row>
     <row r="21" spans="1:60" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -15450,25 +15450,25 @@
       <c r="I21" s="24"/>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="82"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="24"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="17"/>
-      <c r="AA21" s="82"/>
+      <c r="AA21" s="50"/>
       <c r="AB21" s="24"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="97"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="55"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
@@ -15476,14 +15476,14 @@
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
       <c r="AK21" s="32"/>
-      <c r="AL21" s="69"/>
+      <c r="AL21" s="37"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="17"/>
-      <c r="AP21" s="82"/>
+      <c r="AP21" s="50"/>
       <c r="AQ21" s="24"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="97"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="55"/>
       <c r="AT21" s="32"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="32"/>
@@ -15491,32 +15491,32 @@
       <c r="AX21" s="32"/>
       <c r="AY21" s="32"/>
       <c r="AZ21" s="32"/>
-      <c r="BA21" s="69"/>
+      <c r="BA21" s="37"/>
       <c r="BB21" s="18"/>
       <c r="BC21" s="23"/>
       <c r="BD21" s="18"/>
-      <c r="BE21" s="84"/>
+      <c r="BE21" s="52"/>
     </row>
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="24"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="82"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="25"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
@@ -15524,9 +15524,9 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="82"/>
+      <c r="AA22" s="50"/>
       <c r="AB22" s="25"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="40"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
@@ -15539,9 +15539,9 @@
       <c r="AM22" s="18"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="17"/>
-      <c r="AP22" s="82"/>
+      <c r="AP22" s="50"/>
       <c r="AQ22" s="25"/>
-      <c r="AR22" s="72"/>
+      <c r="AR22" s="40"/>
       <c r="AS22" s="32"/>
       <c r="AT22" s="32"/>
       <c r="AU22" s="32"/>
@@ -15554,21 +15554,21 @@
       <c r="BB22" s="18"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="18"/>
-      <c r="BE22" s="84"/>
+      <c r="BE22" s="52"/>
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="82"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -15583,7 +15583,7 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="82"/>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="25"/>
@@ -15598,7 +15598,7 @@
       <c r="AM23" s="18"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="17"/>
-      <c r="AP23" s="82"/>
+      <c r="AP23" s="50"/>
       <c r="AQ23" s="25"/>
       <c r="AR23" s="25"/>
       <c r="AS23" s="25"/>
@@ -15613,7 +15613,7 @@
       <c r="BB23" s="18"/>
       <c r="BC23" s="13"/>
       <c r="BD23" s="18"/>
-      <c r="BE23" s="84"/>
+      <c r="BE23" s="52"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -15627,7 +15627,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="82"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
@@ -15642,7 +15642,7 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="17"/>
-      <c r="AA24" s="82"/>
+      <c r="AA24" s="50"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24"/>
@@ -15657,7 +15657,7 @@
       <c r="AM24" s="18"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="17"/>
-      <c r="AP24" s="82"/>
+      <c r="AP24" s="50"/>
       <c r="AQ24" s="24"/>
       <c r="AR24" s="24"/>
       <c r="AS24" s="24"/>
@@ -15672,7 +15672,7 @@
       <c r="BB24" s="18"/>
       <c r="BC24" s="23"/>
       <c r="BD24" s="18"/>
-      <c r="BE24" s="84"/>
+      <c r="BE24" s="52"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
@@ -15731,7 +15731,7 @@
       <c r="BB25" s="30"/>
       <c r="BC25" s="16"/>
       <c r="BD25" s="18"/>
-      <c r="BE25" s="84"/>
+      <c r="BE25" s="52"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
@@ -15746,116 +15746,116 @@
       <c r="J26" s="27"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="93" t="s">
+      <c r="M26" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="93" t="s">
+      <c r="AB26" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="93"/>
-      <c r="AM26" s="93"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
-      <c r="AQ26" s="93" t="s">
+      <c r="AQ26" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="AR26" s="93"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93"/>
-      <c r="AV26" s="93"/>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="93"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="93"/>
-      <c r="BA26" s="93"/>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="70"/>
+      <c r="AR26" s="113"/>
+      <c r="AS26" s="113"/>
+      <c r="AT26" s="113"/>
+      <c r="AU26" s="113"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="113"/>
+      <c r="AY26" s="113"/>
+      <c r="AZ26" s="113"/>
+      <c r="BA26" s="113"/>
+      <c r="BB26" s="113"/>
+      <c r="BC26" s="38"/>
       <c r="BD26" s="18"/>
-      <c r="BE26" s="84"/>
+      <c r="BE26" s="52"/>
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
       <c r="BA27" s="30"/>
-      <c r="BB27" s="116"/>
+      <c r="BB27" s="59"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30"/>
-      <c r="BE27" s="112"/>
+      <c r="BE27" s="58"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
@@ -16821,16 +16821,39 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="Q12:S13"/>
+    <mergeCell ref="T12:V13"/>
+    <mergeCell ref="AO8:AT8"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="BA12:BC13"/>
+    <mergeCell ref="AP12:AQ13"/>
     <mergeCell ref="M26:X26"/>
     <mergeCell ref="AB26:AM26"/>
     <mergeCell ref="AQ26:BB26"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="Z9:AE9"/>
-    <mergeCell ref="AO8:AT8"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="BA12:BC13"/>
     <mergeCell ref="N17:W19"/>
     <mergeCell ref="AC17:AL19"/>
     <mergeCell ref="AR17:BA19"/>
@@ -16839,30 +16862,7 @@
     <mergeCell ref="AF12:AH13"/>
     <mergeCell ref="AI12:AK13"/>
     <mergeCell ref="AL12:AN13"/>
-    <mergeCell ref="AP12:AQ13"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="Q12:S13"/>
-    <mergeCell ref="T12:V13"/>
     <mergeCell ref="W12:Y13"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16875,8 +16875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8094F2-7784-44D3-BA31-9E170275EC75}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -16886,104 +16886,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38" t="s">
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -17008,10 +17008,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -17052,22 +17052,22 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="117"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="60"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -17083,16 +17083,16 @@
       <c r="V7" s="32"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
@@ -17115,27 +17115,27 @@
       <c r="BB7" s="17"/>
       <c r="BC7" s="18"/>
       <c r="BD7" s="18"/>
-      <c r="BE7" s="84"/>
+      <c r="BE7" s="52"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="104" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="117"/>
+      <c r="G8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="102" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -17166,42 +17166,42 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
-      <c r="AO8" s="69"/>
+      <c r="AO8" s="37"/>
       <c r="BD8" s="18"/>
-      <c r="BE8" s="84"/>
+      <c r="BE8" s="52"/>
     </row>
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="115"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -17213,7 +17213,7 @@
       <c r="AN9" s="24"/>
       <c r="AO9" s="24"/>
       <c r="BD9" s="18"/>
-      <c r="BE9" s="84"/>
+      <c r="BE9" s="52"/>
     </row>
     <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
@@ -17225,131 +17225,131 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="132"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="73"/>
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
-      <c r="AM10" s="98" t="s">
+      <c r="AM10" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="99"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="134"/>
       <c r="BD10" s="18"/>
-      <c r="BE10" s="84"/>
+      <c r="BE10" s="52"/>
     </row>
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="67"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="62"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="80"/>
       <c r="BD11" s="18"/>
-      <c r="BE11" s="84"/>
+      <c r="BE11" s="52"/>
     </row>
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="84"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="82"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -17363,22 +17363,22 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="13"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="62"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="107"/>
+      <c r="AZ12" s="80"/>
       <c r="BD12" s="18"/>
-      <c r="BE12" s="84"/>
+      <c r="BE12" s="52"/>
     </row>
     <row r="13" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -17390,16 +17390,16 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="84"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="69"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="37"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
@@ -17411,9 +17411,9 @@
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
-      <c r="AE13" s="84"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="69"/>
+      <c r="AE13" s="52"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="37"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18"/>
       <c r="AQ13" s="18"/>
@@ -17425,9 +17425,9 @@
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
       <c r="AY13" s="18"/>
-      <c r="AZ13" s="84"/>
+      <c r="AZ13" s="52"/>
       <c r="BD13" s="18"/>
-      <c r="BE13" s="84"/>
+      <c r="BE13" s="52"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -17439,7 +17439,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="84"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="25"/>
@@ -17447,7 +17447,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
@@ -17460,23 +17460,23 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
-      <c r="AE14" s="84"/>
-      <c r="AM14" s="83"/>
+      <c r="AE14" s="52"/>
+      <c r="AM14" s="51"/>
       <c r="AN14" s="18"/>
       <c r="AO14" s="18"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="99"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="134"/>
       <c r="AX14" s="18"/>
       <c r="AY14" s="18"/>
-      <c r="AZ14" s="84"/>
+      <c r="AZ14" s="52"/>
       <c r="BD14" s="18"/>
-      <c r="BE14" s="84"/>
+      <c r="BE14" s="52"/>
     </row>
     <row r="15" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -17488,46 +17488,46 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="112"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="120" t="s">
+      <c r="R15" s="66"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="122"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="122"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="64"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="141"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="64"/>
       <c r="BD15" s="18"/>
-      <c r="BE15" s="84"/>
+      <c r="BE15" s="52"/>
     </row>
     <row r="16" spans="1:57" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -17536,180 +17536,180 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="127"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="127"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="68"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="68"/>
       <c r="BD16" s="18"/>
-      <c r="BE16" s="84"/>
+      <c r="BE16" s="52"/>
     </row>
     <row r="17" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="127"/>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="136"/>
-      <c r="AQ17" s="137"/>
-      <c r="AR17" s="137"/>
-      <c r="AS17" s="137"/>
-      <c r="AT17" s="137"/>
-      <c r="AU17" s="137"/>
-      <c r="AV17" s="137"/>
-      <c r="AW17" s="138"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="127"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="68"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="67"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="136"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="136"/>
+      <c r="AT17" s="136"/>
+      <c r="AU17" s="136"/>
+      <c r="AV17" s="136"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="68"/>
       <c r="BD17" s="18"/>
-      <c r="BE17" s="84"/>
+      <c r="BE17" s="52"/>
     </row>
     <row r="18" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="104" t="s">
+      <c r="D18" s="113"/>
+      <c r="E18" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="117"/>
+      <c r="G18" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="102" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="114"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="82"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="50"/>
       <c r="S18" s="24"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="23"/>
-      <c r="AM18" s="82"/>
+      <c r="AM18" s="50"/>
       <c r="AN18" s="24"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="139"/>
-      <c r="AQ18" s="140"/>
-      <c r="AR18" s="140"/>
-      <c r="AS18" s="140"/>
-      <c r="AT18" s="140"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="141"/>
-      <c r="AX18" s="125"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="139"/>
+      <c r="AR18" s="139"/>
+      <c r="AS18" s="139"/>
+      <c r="AT18" s="139"/>
+      <c r="AU18" s="139"/>
+      <c r="AV18" s="139"/>
+      <c r="AW18" s="140"/>
+      <c r="AX18" s="67"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="23"/>
       <c r="BD18" s="18"/>
-      <c r="BE18" s="84"/>
+      <c r="BE18" s="52"/>
     </row>
     <row r="19" spans="1:60" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="115"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="131"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="82"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="24"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="97"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="55"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
@@ -17717,13 +17717,13 @@
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
       <c r="AB19" s="32"/>
-      <c r="AC19" s="69"/>
+      <c r="AC19" s="37"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="23"/>
-      <c r="AM19" s="82"/>
+      <c r="AM19" s="50"/>
       <c r="AN19" s="24"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="97"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="55"/>
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
@@ -17731,11 +17731,11 @@
       <c r="AU19" s="32"/>
       <c r="AV19" s="32"/>
       <c r="AW19" s="32"/>
-      <c r="AX19" s="69"/>
+      <c r="AX19" s="37"/>
       <c r="AY19" s="18"/>
       <c r="AZ19" s="23"/>
       <c r="BD19" s="18"/>
-      <c r="BE19" s="84"/>
+      <c r="BE19" s="52"/>
     </row>
     <row r="20" spans="1:60" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
@@ -17747,7 +17747,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="24"/>
@@ -17755,9 +17755,9 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
-      <c r="R20" s="82"/>
+      <c r="R20" s="50"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="72"/>
+      <c r="T20" s="40"/>
       <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
@@ -17769,9 +17769,9 @@
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="13"/>
-      <c r="AM20" s="82"/>
+      <c r="AM20" s="50"/>
       <c r="AN20" s="25"/>
-      <c r="AO20" s="72"/>
+      <c r="AO20" s="40"/>
       <c r="AP20" s="32"/>
       <c r="AQ20" s="32"/>
       <c r="AR20" s="32"/>
@@ -17784,29 +17784,29 @@
       <c r="AY20" s="18"/>
       <c r="AZ20" s="13"/>
       <c r="BD20" s="18"/>
-      <c r="BE20" s="84"/>
+      <c r="BE20" s="52"/>
     </row>
     <row r="21" spans="1:60" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="111"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="82"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="50"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
@@ -17820,44 +17820,44 @@
       <c r="AC21" s="18"/>
       <c r="AD21" s="18"/>
       <c r="AE21" s="13"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="57" t="s">
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
+      <c r="AO21" s="86"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="86"/>
+      <c r="AS21" s="86"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="86"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="86"/>
+      <c r="AX21" s="86"/>
+      <c r="AY21" s="86"/>
       <c r="AZ21" s="13"/>
       <c r="BD21" s="18"/>
-      <c r="BE21" s="84"/>
+      <c r="BE21" s="52"/>
     </row>
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="84"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="82"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="50"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
@@ -17871,25 +17871,25 @@
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
       <c r="AE22" s="23"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="86"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="86"/>
+      <c r="AX22" s="86"/>
+      <c r="AY22" s="86"/>
       <c r="AZ22" s="23"/>
       <c r="BA22" s="18"/>
       <c r="BB22" s="18"/>
       <c r="BC22" s="25"/>
       <c r="BD22" s="18"/>
-      <c r="BE22" s="84"/>
+      <c r="BE22" s="52"/>
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -17901,7 +17901,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="84"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="25"/>
@@ -17941,7 +17941,7 @@
       <c r="BB23" s="18"/>
       <c r="BC23" s="25"/>
       <c r="BD23" s="18"/>
-      <c r="BE23" s="84"/>
+      <c r="BE23" s="52"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -17953,7 +17953,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="84"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="24"/>
@@ -17964,27 +17964,27 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="66" t="s">
+      <c r="U24" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
       <c r="AO24" s="17"/>
-      <c r="AP24" s="66" t="s">
+      <c r="AP24" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
+      <c r="AQ24" s="106"/>
+      <c r="AR24" s="106"/>
+      <c r="AS24" s="106"/>
+      <c r="AT24" s="106"/>
+      <c r="AU24" s="106"/>
+      <c r="AV24" s="106"/>
+      <c r="AW24" s="106"/>
       <c r="AX24" s="24"/>
       <c r="AY24" s="18"/>
       <c r="AZ24" s="18"/>
@@ -17992,7 +17992,7 @@
       <c r="BB24" s="18"/>
       <c r="BC24" s="24"/>
       <c r="BD24" s="18"/>
-      <c r="BE24" s="84"/>
+      <c r="BE24" s="52"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
@@ -18004,7 +18004,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="112"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="25"/>
@@ -18049,7 +18049,7 @@
       <c r="BB25" s="18"/>
       <c r="BC25" s="25"/>
       <c r="BD25" s="18"/>
-      <c r="BE25" s="84"/>
+      <c r="BE25" s="52"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
@@ -18108,66 +18108,66 @@
       <c r="BB26" s="32"/>
       <c r="BC26" s="18"/>
       <c r="BD26" s="18"/>
-      <c r="BE26" s="84"/>
+      <c r="BE26" s="52"/>
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
       <c r="BA27" s="30"/>
-      <c r="BB27" s="116"/>
+      <c r="BB27" s="59"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30"/>
-      <c r="BE27" s="112"/>
+      <c r="BE27" s="58"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
@@ -19133,6 +19133,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="U24:AB24"/>
+    <mergeCell ref="AP24:AW24"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="T15:AC18"/>
     <mergeCell ref="L16:P17"/>
@@ -19145,26 +19165,6 @@
     <mergeCell ref="G18:H19"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="C21:I22"/>
-    <mergeCell ref="U24:AB24"/>
-    <mergeCell ref="AP24:AW24"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
